--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D560462-3DBD-4811-A403-6DB99C0604E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A9FD5-8EE9-4097-894C-825048E4846A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>school情况统计表（type）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中专</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -389,11 +393,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,41 +479,56 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -850,49 +893,49 @@
     <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="19" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="13" t="s">
@@ -933,12 +976,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
       <c r="G4" s="8"/>
@@ -951,10 +994,10 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="8"/>
       <c r="D5" s="18"/>
       <c r="E5" s="6"/>
@@ -969,10 +1012,10 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1005,7 +1048,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1025,7 +1068,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1086,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1063,7 +1106,7 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1124,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1101,7 +1144,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1162,7 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1180,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1198,7 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1216,7 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="14" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1234,7 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1252,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1229,7 +1272,7 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
@@ -1247,7 +1290,7 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
@@ -1265,7 +1308,7 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="14" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1326,7 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1344,7 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1362,7 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1339,7 +1382,7 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1400,7 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1418,7 @@
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>4</v>
       </c>
@@ -1393,34 +1436,43 @@
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="20"/>
       <c r="D29" s="18"/>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="18"/>
       <c r="K29" s="6"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="A1:N1"/>
@@ -1428,6 +1480,15 @@
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A9FD5-8EE9-4097-894C-825048E4846A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB21D1-FEBC-4812-A35C-301D591E1F35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中共党员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>中专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面貌政治</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,9 +485,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,30 +519,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -894,94 +894,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
       <c r="G4" s="8"/>
@@ -994,10 +994,10 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8"/>
       <c r="D5" s="18"/>
       <c r="E5" s="6"/>
@@ -1012,10 +1012,10 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1030,10 +1030,10 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="25"/>
+      <c r="A7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1048,11 +1048,11 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
@@ -1068,9 +1068,9 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="18"/>
@@ -1086,11 +1086,11 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="18"/>
@@ -1106,9 +1106,9 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="18"/>
@@ -1124,8 +1124,8 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>28</v>
+      <c r="A12" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>12</v>
@@ -1144,7 +1144,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="14" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="14" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
@@ -1252,11 +1252,11 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="18"/>
@@ -1272,9 +1272,9 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="18"/>
@@ -1290,9 +1290,9 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="18"/>
@@ -1308,9 +1308,9 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18"/>
@@ -1326,7 +1326,7 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="35"/>
       <c r="B29" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="18"/>
@@ -1454,10 +1454,10 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="22"/>
+      <c r="A30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="30"/>
       <c r="C30" s="8"/>
       <c r="D30" s="18"/>
       <c r="E30" s="6"/>
@@ -1473,13 +1473,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A4:B4"/>
@@ -1489,6 +1482,13 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A25:A29"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB21D1-FEBC-4812-A35C-301D591E1F35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7ACCCB-A064-4C7D-8553-2AA3DE79DC17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,14 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大专</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>31-35岁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,11 +179,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中专</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面貌政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -404,24 +396,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -480,45 +459,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,8 +479,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -894,94 +864,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="A1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
       <c r="G4" s="8"/>
@@ -993,11 +963,11 @@
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="8"/>
       <c r="D5" s="18"/>
       <c r="E5" s="6"/>
@@ -1011,11 +981,11 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1029,11 +999,11 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1047,12 +1017,12 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>22</v>
+    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
@@ -1067,10 +1037,10 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="18"/>
@@ -1085,12 +1055,12 @@
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
-        <v>44</v>
+    <row r="10" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="18"/>
@@ -1105,10 +1075,10 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="18"/>
@@ -1123,12 +1093,12 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
-        <v>27</v>
+    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="18"/>
@@ -1143,10 +1113,10 @@
       <c r="M12" s="8"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
       <c r="B13" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="18"/>
@@ -1161,10 +1131,10 @@
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="18"/>
@@ -1179,10 +1149,10 @@
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
       <c r="B15" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="18"/>
@@ -1197,10 +1167,10 @@
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
       <c r="B16" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="18"/>
@@ -1215,10 +1185,10 @@
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
       <c r="B17" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="18"/>
@@ -1233,10 +1203,10 @@
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
       <c r="B18" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="18"/>
@@ -1251,12 +1221,12 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26" t="s">
-        <v>15</v>
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="18"/>
@@ -1271,10 +1241,10 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
       <c r="B20" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="18"/>
@@ -1289,10 +1259,10 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
       <c r="B21" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="18"/>
@@ -1307,10 +1277,10 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
+    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
       <c r="B22" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18"/>
@@ -1325,10 +1295,10 @@
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
       <c r="B23" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="18"/>
@@ -1343,10 +1313,10 @@
       <c r="M23" s="8"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
+    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
       <c r="B24" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="18"/>
@@ -1361,9 +1331,9 @@
       <c r="M24" s="8"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
-        <v>5</v>
+    <row r="25" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>1</v>
@@ -1381,8 +1351,8 @@
       <c r="M25" s="8"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1399,8 +1369,8 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
       <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
@@ -1417,11 +1387,11 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="14" t="s">
-        <v>4</v>
-      </c>
+    <row r="28" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="8"/>
       <c r="D28" s="18"/>
       <c r="E28" s="6"/>
@@ -1435,53 +1405,8 @@
       <c r="M28" s="8"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A25:A29"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="A1:N1"/>
@@ -1489,6 +1414,15 @@
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7ACCCB-A064-4C7D-8553-2AA3DE79DC17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6CDDF-D267-425F-82F1-61028E5BD170}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="2370" windowWidth="26235" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有中层干部" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>学位分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：百分比按四舍五入取值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +257,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -458,9 +469,30 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -468,9 +500,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,26 +508,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -864,112 +878,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="31" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="28" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="26" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="13" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+    <row r="5" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -981,11 +995,11 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -999,11 +1013,11 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1017,13 +1031,11 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="24"/>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
@@ -1037,10 +1049,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="18"/>
@@ -1055,12 +1069,10 @@
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
-        <v>41</v>
-      </c>
+    <row r="10" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="18"/>
@@ -1075,10 +1087,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="18"/>
@@ -1093,48 +1107,48 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="18"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="8"/>
       <c r="J12" s="18"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="18"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="8"/>
       <c r="J13" s="18"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
       <c r="B14" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="18"/>
@@ -1149,10 +1163,10 @@
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="18"/>
@@ -1167,10 +1181,10 @@
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="18"/>
@@ -1185,10 +1199,10 @@
       <c r="M16" s="8"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
       <c r="B17" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="18"/>
@@ -1203,10 +1217,10 @@
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
       <c r="B18" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="18"/>
@@ -1221,12 +1235,10 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>13</v>
-      </c>
+    <row r="19" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="18"/>
@@ -1241,10 +1253,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="18"/>
@@ -1259,10 +1273,10 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="23"/>
       <c r="B21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="18"/>
@@ -1277,10 +1291,10 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="23"/>
       <c r="B22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18"/>
@@ -1295,10 +1309,10 @@
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="18"/>
@@ -1313,10 +1327,10 @@
       <c r="M23" s="8"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="18"/>
@@ -1331,12 +1345,10 @@
       <c r="M24" s="8"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
-        <v>42</v>
-      </c>
+    <row r="25" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="23"/>
       <c r="B25" s="14" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="18"/>
@@ -1351,10 +1363,12 @@
       <c r="M25" s="8"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="18"/>
@@ -1369,10 +1383,10 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="31"/>
       <c r="B27" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="18"/>
@@ -1387,11 +1401,11 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="20"/>
+    <row r="28" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="31"/>
+      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="D28" s="18"/>
       <c r="E28" s="6"/>
@@ -1405,24 +1419,43 @@
       <c r="M28" s="8"/>
       <c r="N28" s="9"/>
     </row>
+    <row r="29" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+  <mergeCells count="17">
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6CDDF-D267-425F-82F1-61028E5BD170}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFE1F1-9FC2-46E6-95C8-A618FF97C2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="2370" windowWidth="26235" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="510" windowWidth="27870" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有中层干部" sheetId="7" r:id="rId1"/>
@@ -469,37 +469,19 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,7 +490,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -878,22 +878,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
@@ -913,33 +913,33 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="19" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -978,12 +978,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -996,10 +996,10 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1014,10 +1014,10 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1032,10 +1032,10 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
@@ -1050,7 +1050,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1070,7 +1070,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1108,7 +1108,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1146,7 +1146,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1274,7 +1274,7 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
@@ -1363,8 +1363,8 @@
       <c r="M25" s="8"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -1383,8 +1383,8 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
@@ -1401,8 +1401,8 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="25"/>
       <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
@@ -1420,10 +1420,10 @@
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="8"/>
       <c r="D29" s="18"/>
       <c r="E29" s="6"/>
@@ -1439,6 +1439,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:N2"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A5:B5"/>
@@ -1448,14 +1456,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFE1F1-9FC2-46E6-95C8-A618FF97C2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441A566-0E7F-4825-8AC5-EFA3DDD990EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="510" windowWidth="27870" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有中层干部" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,22 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正高(总)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正高(二级)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正高(三级)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正高(四级)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副处</t>
   </si>
   <si>
@@ -175,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school情况统计表（type）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面貌政治</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +168,17 @@
   </si>
   <si>
     <t>注：百分比按四舍五入取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school情况统计表type</t>
+  </si>
+  <si>
+    <t>双肩挑干部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,9 +460,39 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,9 +500,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,30 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -878,68 +872,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="A2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -947,19 +941,19 @@
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>26</v>
@@ -978,12 +972,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -996,10 +990,10 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1014,10 +1008,10 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="20"/>
+      <c r="A7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="30"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1032,10 +1026,10 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
@@ -1050,7 +1044,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1070,7 +1064,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -1088,8 +1082,8 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>41</v>
+      <c r="A11" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>18</v>
@@ -1108,7 +1102,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1120,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1146,7 +1140,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1158,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1176,7 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1194,7 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1212,7 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1230,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
@@ -1253,12 +1247,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="18"/>
@@ -1273,10 +1267,10 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
       <c r="B21" s="14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="18"/>
@@ -1291,10 +1285,10 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
       <c r="B22" s="14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="18"/>
@@ -1309,10 +1303,12 @@
       <c r="M22" s="8"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="B23" s="14" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="18"/>
@@ -1327,10 +1323,10 @@
       <c r="M23" s="8"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="18"/>
@@ -1345,10 +1341,10 @@
       <c r="M24" s="8"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
       <c r="B25" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="18"/>
@@ -1363,13 +1359,11 @@
       <c r="M25" s="8"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>1</v>
-      </c>
+    <row r="26" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30"/>
       <c r="C26" s="8"/>
       <c r="D26" s="18"/>
       <c r="E26" s="6"/>
@@ -1383,62 +1377,36 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
-      <c r="B27" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8"/>
+    <row r="27" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="18"/>
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="18"/>
       <c r="K27" s="6"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A1:N1"/>
@@ -1447,15 +1415,6 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cadre/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441A566-0E7F-4825-8AC5-EFA3DDD990EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55F2A6-4837-4CB1-AA26-4686E95F74CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,25 +463,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,21 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,7 +849,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -872,68 +872,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="20" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -972,12 +972,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
@@ -990,10 +990,10 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
@@ -1008,10 +1008,10 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
@@ -1026,10 +1026,10 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="8"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
@@ -1044,7 +1044,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1064,7 +1064,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1102,7 +1102,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1140,7 +1140,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1247,8 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1267,8 +1267,8 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
       <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
@@ -1285,8 +1285,8 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
       <c r="B22" s="14" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1324,7 +1324,7 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="14" t="s">
         <v>3</v>
       </c>
@@ -1360,10 +1360,10 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="8"/>
       <c r="D26" s="18"/>
       <c r="E26" s="6"/>
@@ -1378,10 +1378,10 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="19"/>
       <c r="D27" s="18"/>
       <c r="E27" s="6"/>
@@ -1397,6 +1397,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:N2"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A26:B26"/>
@@ -1407,14 +1415,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
